--- a/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>-31,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>57,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>225,6%</t>
+          <t>74,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 4,52</t>
+          <t>-30,93; 14,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 8,17</t>
+          <t>-18,73; 27,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 13,74</t>
+          <t>-8,63; 28,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,59</t>
+          <t>0,0; 37,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 73,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 152,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,95; 866,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 131,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>101,93%</t>
+          <t>-13,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>225,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>-6,96%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 18,16</t>
+          <t>-7,48; 4,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 3,42</t>
+          <t>-4,38; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 9,26</t>
+          <t>2,21; 13,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 10,34</t>
+          <t>-5,59; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 304,37</t>
+          <t>-57,73; 73,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 43,69</t>
+          <t>-37,45; 152,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 200,57</t>
+          <t>17,95; 866,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 293,5</t>
+          <t>-71,75; 131,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,82%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>12,54%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 14,51</t>
+          <t>-4,07; 10,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 27,6</t>
+          <t>-7,11; 6,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 28,21</t>
+          <t>-6,99; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,09</t>
+          <t>-6,08; 8,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,36; 291,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,41; 128,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,39; 137,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,39; 162,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>101,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-31,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-30,05%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>41,28%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 10,5</t>
+          <t>0,65; 18,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 6,95</t>
+          <t>-10,78; 3,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 3,1</t>
+          <t>-3,92; 9,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 8,21</t>
+          <t>-3,15; 10,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 291,84</t>
+          <t>-1,24; 304,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 128,95</t>
+          <t>-68,02; 43,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-80,39; 137,44</t>
+          <t>-44,48; 200,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-52,39; 162,58</t>
+          <t>-41,49; 293,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 14,51</t>
+          <t>-31,98; 16,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 27,6</t>
+          <t>-19,95; 25,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 28,21</t>
+          <t>-8,83; 28,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 8,41</t>
+          <t>-10,98; 9,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 9,82</t>
+          <t>-8,21; 9,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 9,48</t>
+          <t>-7,48; 10,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 12,67</t>
+          <t>-0,45; 14,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 81,36</t>
+          <t>-57,65; 91,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 195,44</t>
+          <t>-63,19; 167,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 312,27</t>
+          <t>-65,66; 324,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,03; inf</t>
+          <t>-52,97; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 4,52</t>
+          <t>-7,01; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 8,17</t>
+          <t>-3,41; 9,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 13,74</t>
+          <t>1,81; 12,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,59</t>
+          <t>-5,35; 5,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 73,57</t>
+          <t>-59,73; 71,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 152,67</t>
+          <t>-32,71; 183,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 866,25</t>
+          <t>11,32; 1019,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 131,63</t>
+          <t>-73,58; 164,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 10,5</t>
+          <t>-4,13; 10,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 6,95</t>
+          <t>-6,94; 7,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 3,1</t>
+          <t>-7,24; 3,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 8,21</t>
+          <t>-5,3; 7,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 291,84</t>
+          <t>-50,3; 302,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 128,95</t>
+          <t>-58,72; 166,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,39; 137,44</t>
+          <t>-82,49; 147,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,39; 162,58</t>
+          <t>-45,41; 161,36</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 18,16</t>
+          <t>0,69; 17,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 3,42</t>
+          <t>-11,49; 3,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 9,26</t>
+          <t>-4,07; 8,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 10,34</t>
+          <t>-3,37; 9,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 304,37</t>
+          <t>1,13; 316,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 43,69</t>
+          <t>-68,87; 38,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 200,57</t>
+          <t>-45,98; 202,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,49; 293,5</t>
+          <t>-40,62; 304,97</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,99</t>
+          <t>-1,74; 6,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,38</t>
+          <t>-3,37; 3,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,7</t>
+          <t>-0,69; 5,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,15</t>
+          <t>-1,21; 5,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 74,04</t>
+          <t>-15,96; 72,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 41,55</t>
+          <t>-29,92; 42,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 130,64</t>
+          <t>-10,77; 134,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 113,07</t>
+          <t>-16,95; 119,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 16,01</t>
+          <t>-28,71; 16,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 25,95</t>
+          <t>-20,72; 27,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 28,39</t>
+          <t>-8,86; 29,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,09</t>
+          <t>0,0; 40,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 9,06</t>
+          <t>-11,23; 8,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 9,45</t>
+          <t>-8,32; 9,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 10,36</t>
+          <t>-8,14; 9,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 14,17</t>
+          <t>-0,54; 12,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 91,11</t>
+          <t>-58,93; 86,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 167,73</t>
+          <t>-60,36; 180,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,66; 324,04</t>
+          <t>-71,7; 247,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,97; —</t>
+          <t>-48,65; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 4,24</t>
+          <t>-7,15; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 9,04</t>
+          <t>-4,32; 9,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 12,57</t>
+          <t>1,56; 12,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 5,04</t>
+          <t>-5,11; 5,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 71,17</t>
+          <t>-58,91; 63,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 183,07</t>
+          <t>-37,55; 167,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 1019,85</t>
+          <t>16,25; 993,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,58; 164,41</t>
+          <t>-71,3; 150,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 10,43</t>
+          <t>-4,34; 10,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 7,76</t>
+          <t>-7,98; 7,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 3,64</t>
+          <t>-7,09; 3,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 7,89</t>
+          <t>-6,1; 8,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 302,14</t>
+          <t>-50,11; 278,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 166,28</t>
+          <t>-64,24; 158,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,49; 147,09</t>
+          <t>-82,68; 175,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 161,36</t>
+          <t>-52,59; 153,04</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 17,42</t>
+          <t>0,23; 16,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 3,22</t>
+          <t>-11,02; 3,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 8,44</t>
+          <t>-4,19; 8,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 9,81</t>
+          <t>-3,37; 9,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 316,47</t>
+          <t>-3,97; 287,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 38,59</t>
+          <t>-69,72; 41,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 202,13</t>
+          <t>-46,46; 201,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 304,97</t>
+          <t>-38,46; 290,14</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,18</t>
+          <t>-1,8; 5,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,31</t>
+          <t>-3,58; 3,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,84</t>
+          <t>-0,71; 6,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,19</t>
+          <t>-1,23; 4,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 72,86</t>
+          <t>-15,55; 70,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 42,93</t>
+          <t>-30,14; 44,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 134,41</t>
+          <t>-10,47; 135,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 119,78</t>
+          <t>-19,56; 101,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C07-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-31,82%</t>
+          <t>-13,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>244,46%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 16,83</t>
+          <t>-12,07; 7,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 27,49</t>
+          <t>-6,94; 10,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 29,91</t>
+          <t>-6,04; 9,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,91</t>
+          <t>0,27; 14,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-56,64; 71,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,39; 203,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,0; 275,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,46; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,76%</t>
+          <t>-13,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>225,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>196,56%</t>
+          <t>-6,14%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 8,49</t>
+          <t>-7,48; 4,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 9,37</t>
+          <t>-4,38; 8,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 9,02</t>
+          <t>2,21; 13,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 12,46</t>
+          <t>-5,54; 4,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 86,34</t>
+          <t>-57,73; 73,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,36; 180,78</t>
+          <t>-37,45; 152,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,7; 247,1</t>
+          <t>17,95; 866,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,65; —</t>
+          <t>-71,32; 141,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>225,6%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 4,36</t>
+          <t>-4,07; 10,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 9,14</t>
+          <t>-7,11; 6,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 12,69</t>
+          <t>-6,99; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 5,19</t>
+          <t>-5,61; 8,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 63,94</t>
+          <t>-43,36; 291,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 167,78</t>
+          <t>-60,41; 128,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 993,34</t>
+          <t>-80,39; 137,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 150,24</t>
+          <t>-51,38; 165,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>101,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-31,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,05%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>44,62%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 10,65</t>
+          <t>0,65; 18,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 7,38</t>
+          <t>-10,78; 3,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,7</t>
+          <t>-3,92; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,1</t>
+          <t>-2,78; 10,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 278,82</t>
+          <t>-1,24; 304,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,24; 158,49</t>
+          <t>-68,02; 43,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,68; 175,48</t>
+          <t>-44,48; 200,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,59; 153,04</t>
+          <t>-40,87; 300,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>101,93%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-31,04%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 16,24</t>
+          <t>-1,57; 5,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 3,18</t>
+          <t>-3,53; 3,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 8,84</t>
+          <t>-0,68; 5,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 9,62</t>
+          <t>-0,89; 5,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 287,11</t>
+          <t>-13,72; 74,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-69,72; 41,78</t>
+          <t>-31,73; 41,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 201,03</t>
+          <t>-12,12; 130,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 290,14</t>
+          <t>-15,36; 119,51</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>22,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-2,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>43,9%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>31,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 5,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 3,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 6,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 4,93</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-15,55; 70,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-30,14; 44,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-10,47; 135,46</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-19,56; 101,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
